--- a/data/long_dif/P50-Edad-long_dif.xlsx
+++ b/data/long_dif/P50-Edad-long_dif.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +589,62 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -627,52 +675,82 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>35,41%</t>
+          <t>35,02%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>12,42%</t>
+          <t>15,36%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>26,24%</t>
+          <t>26,58%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>24,61%</t>
+          <t>35,99%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>23,18%</t>
+          <t>34,75%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>32,48%</t>
+          <t>26,29%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>30,3%</t>
+          <t>22,43%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>17,71%</t>
+          <t>33,13%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>29,37%</t>
+          <t>24,14%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>39,0%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>30,89%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>18,83%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>29,87%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>29,81%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>36,72%</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>27,04; 44,89</t>
+          <t>26,9; 44,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,95; 22,23</t>
+          <t>7,55; 29,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>17,73; 37,56</t>
+          <t>18,05; 37,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>18,09; 33,15</t>
+          <t>21,74; 49,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,85; 32,59</t>
+          <t>20,55; 53,38</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>24,73; 41,37</t>
+          <t>18,72; 34,81</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>24,51; 36,33</t>
+          <t>15,52; 31,43</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,79; 24,02</t>
+          <t>25,7; 42,75</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>22,94; 35,83</t>
+          <t>16,38; 32,97</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>24,92; 53,19</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>25,43; 37,17</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>13,5; 25,72</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>23,84; 36,51</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>22,84; 38,09</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>26,38; 47,88</t>
         </is>
       </c>
     </row>
@@ -733,52 +841,82 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>47,97%</t>
+          <t>48,22%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>55,71%</t>
+          <t>52,74%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>56,25%</t>
+          <t>55,1%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>47,38%</t>
+          <t>34,38%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>48,19%</t>
+          <t>24,7%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>46,03%</t>
+          <t>46,2%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>47,69%</t>
+          <t>46,77%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>52,02%</t>
+          <t>45,72%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>51,12%</t>
+          <t>40,4%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>39,81%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>47,27%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>49,81%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>50,39%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>37,52%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>31,7%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>38,59; 57,08</t>
+          <t>38,47; 56,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>45,07; 65,39</t>
+          <t>41,27; 63,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>45,17; 66,7</t>
+          <t>43,56; 64,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>38,27; 56,77</t>
+          <t>22,89; 49,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>38,52; 56,78</t>
+          <t>12,76; 41,1</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>38,47; 54,76</t>
+          <t>37,03; 55,4</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>40,14; 53,79</t>
+          <t>37,06; 56,68</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>45,24; 59,57</t>
+          <t>37,63; 54,36</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>44,33; 58,3</t>
+          <t>30,38; 51,15</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>26,94; 54,01</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>40,85; 53,71</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>42,6; 56,83</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>43,64; 57,3</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>29,43; 46,44</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>23,17; 42,63</t>
         </is>
       </c>
     </row>
@@ -839,52 +1007,82 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>16,61%</t>
+          <t>16,76%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>31,87%</t>
+          <t>31,9%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>17,51%</t>
+          <t>18,32%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>28,01%</t>
+          <t>29,63%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>28,62%</t>
+          <t>40,55%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>21,5%</t>
+          <t>27,5%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>22,01%</t>
+          <t>30,8%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>30,27%</t>
+          <t>21,14%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>19,51%</t>
+          <t>35,45%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>21,18%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>21,84%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>31,36%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>19,74%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>32,66%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>31,58%</t>
         </is>
       </c>
     </row>
@@ -897,104 +1095,160 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,23; 24,08</t>
+          <t>10,84; 25,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>22,76; 42,2</t>
+          <t>22,64; 43,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,53; 26,64</t>
+          <t>11,47; 28,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>20,68; 37,13</t>
+          <t>17,57; 43,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,89; 39,11</t>
+          <t>25,5; 55,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,71; 31,53</t>
+          <t>19,93; 36,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>17,25; 28,11</t>
+          <t>21,88; 41,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>23,96; 37,52</t>
+          <t>13,84; 29,41</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,48; 26,36</t>
+          <t>25,62; 47,82</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>12,24; 33,69</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>17,1; 27,73</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>24,42; 38,9</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>15,09; 26,78</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>25,05; 42,72</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>23,14; 43,21</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>31,2%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>35,29%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>30,64%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>35,08%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>24,71%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>28,22%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>33,14%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>30,33%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>29,51%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1007,100 +1261,164 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>21,69; 46,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>24,34; 49,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>21,94; 39,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>27,09; 43,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,44; 33,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>22,06; 35,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>26,7; 41,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>24,02; 40,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>23,85; 35,15</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>43,6%</t>
+          <t>31,97%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>34,04%</t>
+          <t>34,01%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>38,69%</t>
+          <t>29,87%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>40,86%</t>
+          <t>42,76%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>45,98%</t>
+          <t>18,92%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>49,34%</t>
+          <t>35,78%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>42,23%</t>
+          <t>25,12%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>39,64%</t>
+          <t>27,99%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>43,67%</t>
+          <t>25,11%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>26,19%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>33,86%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>29,86%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>29,0%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>34,87%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>22,66%</t>
         </is>
       </c>
     </row>
@@ -1113,47 +1431,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>32,68; 53,6</t>
+          <t>22,49; 47,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>23,72; 44,34</t>
+          <t>23,71; 50,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>28,66; 48,01</t>
+          <t>20,77; 38,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>32,82; 49,36</t>
+          <t>25,74; 64,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>37,72; 55,75</t>
+          <t>7,65; 33,67</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>42,3; 56,58</t>
+          <t>28,11; 44,58</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>34,5; 48,7</t>
+          <t>18,26; 33,62</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>32,51; 46,27</t>
+          <t>21,44; 35,2</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>36,6; 50,01</t>
+          <t>17,83; 34,35</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>16,6; 37,75</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>27,02; 43,33</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>23,34; 40,74</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>23,05; 34,41</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>24,56; 50,59</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>14,19; 31,31</t>
         </is>
       </c>
     </row>
@@ -1161,52 +1509,82 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>25,2%</t>
+          <t>43,78%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>30,66%</t>
+          <t>34,67%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>30,67%</t>
+          <t>38,18%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>24,06%</t>
+          <t>30,24%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>29,31%</t>
+          <t>33,33%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>22,43%</t>
+          <t>41,09%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>24,63%</t>
+          <t>45,8%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>30,03%</t>
+          <t>49,99%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>26,82%</t>
+          <t>39,12%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>42,62%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>42,44%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>39,86%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>43,68%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>34,2%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>38,11%</t>
         </is>
       </c>
     </row>
@@ -1219,104 +1597,160 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>16,82; 39,65</t>
+          <t>32,49; 53,9</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>21,68; 42,91</t>
+          <t>24,04; 45,17</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>21,23; 46,6</t>
+          <t>28,4; 47,41</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>16,96; 32,65</t>
+          <t>17,52; 41,4</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>21,54; 36,86</t>
+          <t>14,93; 51,04</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>16,48; 29,07</t>
+          <t>32,38; 48,97</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>19,12; 32,66</t>
+          <t>36,7; 54,86</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>23,97; 37,67</t>
+          <t>42,91; 57,45</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>21,18; 36,09</t>
+          <t>30,46; 48,33</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>31,32; 53,56</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>34,93; 49,53</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>32,97; 47,21</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>36,62; 49,72</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>24,39; 41,13</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>26,94; 47,82</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>34,46%</t>
+          <t>24,25%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>24,1%</t>
+          <t>31,33%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>28,48%</t>
+          <t>31,95%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>26,52%</t>
+          <t>27,0%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>17,17%</t>
+          <t>47,74%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>29,98%</t>
+          <t>23,13%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>30,57%</t>
+          <t>29,08%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>20,53%</t>
+          <t>22,01%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>29,25%</t>
+          <t>35,78%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>31,19%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>23,7%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>30,28%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>27,33%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>30,92%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>39,23%</t>
         </is>
       </c>
     </row>
@@ -1329,47 +1763,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>25,29; 47,4</t>
+          <t>15,24; 41,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>17,12; 31,37</t>
+          <t>21,61; 44,61</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>22,25; 38,07</t>
+          <t>22,04; 45,95</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>21,06; 32,39</t>
+          <t>16,34; 38,54</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>12,79; 22,83</t>
+          <t>26,51; 72,15</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>25,26; 35,52</t>
+          <t>16,34; 31,65</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>24,88; 38,84</t>
+          <t>21,65; 37,93</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>16,49; 24,27</t>
+          <t>16,85; 28,94</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>24,71; 34,68</t>
+          <t>27,66; 45,56</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>21,73; 41,34</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>18,1; 32,38</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>23,61; 39,17</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>21,92; 38,45</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>22,63; 39,31</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>29,38; 56,92</t>
         </is>
       </c>
     </row>
@@ -1377,52 +1841,82 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>41,8%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>51,86%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>49,29%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>55,66%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>44,98%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>50,24%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>48,6%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>48,31%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>49,78%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1435,100 +1929,164 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>30,19; 52,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>42,32; 60,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>40,9; 57,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>49,08; 62,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>38,17; 50,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>44,68; 55,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>41,13; 54,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>42,28; 54,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>44,54; 54,54</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>23,73%</t>
+          <t>31,35%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>24,04%</t>
+          <t>24,43%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>22,22%</t>
+          <t>27,62%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>17,82%</t>
+          <t>24,79%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>37,84%</t>
+          <t>19,53%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>19,78%</t>
+          <t>27,05%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>20,83%</t>
+          <t>16,81%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>31,16%</t>
+          <t>30,46%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>20,98%</t>
+          <t>22,51%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>25,52%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>29,21%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>20,47%</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>29,06%</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>23,6%</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>22,32%</t>
         </is>
       </c>
     </row>
@@ -1541,104 +2099,160 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>15,78; 37,79</t>
+          <t>23,71; 39,68</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>17,67; 34,04</t>
+          <t>17,7; 32,1</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>15,81; 30,22</t>
+          <t>20,82; 35,82</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>12,9; 23,46</t>
+          <t>18,54; 32,81</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>31,99; 44,26</t>
+          <t>11,97; 28,65</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>15,83; 24,79</t>
+          <t>21,22; 33,37</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>15,95; 28,14</t>
+          <t>12,2; 22,08</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>26,51; 36,55</t>
+          <t>25,16; 36,36</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>17,5; 26,1</t>
+          <t>17,35; 28,43</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>18,08; 33,93</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>24,34; 35,09</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>16,5; 24,97</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>24,44; 33,92</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>19,33; 28,84</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>16,9; 29,32</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>30,2%</t>
+          <t>44,56%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>26,5%</t>
+          <t>52,6%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>20,56%</t>
+          <t>50,19%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>32,94%</t>
+          <t>42,2%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>26,61%</t>
+          <t>49,42%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>26,16%</t>
+          <t>55,43%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>31,64%</t>
+          <t>45,41%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>26,56%</t>
+          <t>49,84%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>23,41%</t>
+          <t>45,23%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>39,89%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>49,98%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>48,86%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>50,01%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>43,78%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>44,97%</t>
         </is>
       </c>
     </row>
@@ -1651,47 +2265,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>23,79; 36,2</t>
+          <t>35,28; 54,07</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>19,62; 33,14</t>
+          <t>43,67; 63,01</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>15,41; 29,36</t>
+          <t>42,86; 58,58</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>27,14; 39,37</t>
+          <t>33,02; 51,47</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>21,4; 32,86</t>
+          <t>38,36; 59,87</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>20,82; 31,66</t>
+          <t>48,9; 62,43</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>27,3; 36,53</t>
+          <t>39,09; 52,35</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>22,21; 31,01</t>
+          <t>43,85; 55,86</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>19,57; 27,54</t>
+          <t>39,12; 52,37</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>31,56; 49,87</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>44,48; 56,14</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>43,14; 55,06</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>45,2; 54,82</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>38,42; 50,12</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>37,81; 52,07</t>
         </is>
       </c>
     </row>
@@ -1699,52 +2343,82 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>48,31%</t>
+          <t>24,09%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>45,37%</t>
+          <t>22,98%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>56,7%</t>
+          <t>22,2%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>47,45%</t>
+          <t>33,01%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>44,49%</t>
+          <t>31,05%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>50,98%</t>
+          <t>17,52%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>47,86%</t>
+          <t>37,78%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>44,92%</t>
+          <t>19,7%</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>53,79%</t>
+          <t>32,26%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>34,6%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>20,81%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>30,67%</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>20,93%</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>32,62%</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>32,71%</t>
         </is>
       </c>
     </row>
@@ -1757,47 +2431,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>41,01; 54,91</t>
+          <t>16,42; 34,78</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>37,66; 52,96</t>
+          <t>16,28; 31,19</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>49,13; 63,17</t>
+          <t>16,29; 30,58</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>40,93; 54,06</t>
+          <t>25,55; 42,22</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>37,97; 51,5</t>
+          <t>22,16; 41,36</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>45,65; 56,5</t>
+          <t>12,85; 22,95</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>42,99; 52,99</t>
+          <t>31,53; 44,55</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>39,6; 49,75</t>
+          <t>15,23; 24,55</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>49,2; 58,19</t>
+          <t>26,58; 39,55</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>26,27; 43,99</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>16,37; 26,73</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>25,97; 36,04</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>17,29; 25,15</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>27,98; 38,4</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>25,38; 39,53</t>
         </is>
       </c>
     </row>
@@ -1805,52 +2509,82 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>21,48%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>28,13%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>22,74%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>19,62%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>28,9%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>22,86%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>20,5%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>28,52%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>22,8%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1863,104 +2597,164 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>16,26; 27,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>21,33; 37,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>17,84; 28,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>15,16; 25,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>22,65; 35,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>18,56; 28,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>17,04; 24,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>24,55; 34,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>19,44; 26,62</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>29,27%</t>
+          <t>29,9%</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>26,25%</t>
+          <t>25,75%</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>25,1%</t>
+          <t>21,36%</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>31,95%</t>
+          <t>28,69%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>23,74%</t>
+          <t>38,91%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>28,51%</t>
+          <t>31,6%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>30,64%</t>
+          <t>26,88%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>25,04%</t>
+          <t>25,91%</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>26,81%</t>
+          <t>25,92%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>26,8%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>30,78%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>26,33%</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>23,68%</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>27,31%</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>33,14%</t>
         </is>
       </c>
     </row>
@@ -1973,47 +2767,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>21,5; 36,39</t>
+          <t>24,08; 36,53</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>19,43; 36,67</t>
+          <t>19,77; 32,95</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>19,59; 31,49</t>
+          <t>15,17; 30,28</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>24,68; 40,23</t>
+          <t>21,04; 42,55</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>17,34; 31,59</t>
+          <t>28,58; 50,29</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>23,28; 36,82</t>
+          <t>26,03; 38,18</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>25,36; 36,06</t>
+          <t>21,48; 32,92</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>20,0; 30,83</t>
+          <t>21,35; 31,09</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>22,72; 31,38</t>
+          <t>20,3; 32,2</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>19,43; 34,6</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>26,47; 35,24</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>22,1; 30,69</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>20,06; 28,71</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>22,69; 34,59</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>27,09; 42,15</t>
         </is>
       </c>
     </row>
@@ -2021,52 +2845,82 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>48,38%</t>
+          <t>49,06%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>44,91%</t>
+          <t>45,21%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>53,95%</t>
+          <t>56,73%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>42,01%</t>
+          <t>44,11%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>43,57%</t>
+          <t>35,72%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>44,42%</t>
+          <t>48,29%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>45,13%</t>
+          <t>45,12%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>44,26%</t>
+          <t>51,0%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>49,17%</t>
+          <t>41,36%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>42,92%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>48,66%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>45,17%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>53,81%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>42,74%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>39,14%</t>
         </is>
       </c>
     </row>
@@ -2079,47 +2933,77 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>40,19; 57,68</t>
+          <t>42,05; 55,58</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>36,4; 52,99</t>
+          <t>37,26; 52,58</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>47,19; 60,38</t>
+          <t>49,22; 63,36</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>34,4; 50,01</t>
+          <t>34,47; 52,11</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>35,91; 52,24</t>
+          <t>26,65; 47,01</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>37,31; 51,26</t>
+          <t>41,88; 54,48</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>39,62; 51,86</t>
+          <t>38,52; 51,02</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>38,4; 49,91</t>
+          <t>45,31; 57,05</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>44,25; 54,08</t>
+          <t>35,36; 48,68</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>34,36; 53,51</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>44,19; 53,7</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>39,86; 50,18</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>49,2; 58,15</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>37,2; 48,21</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>32,15; 45,94</t>
         </is>
       </c>
     </row>
@@ -2127,52 +3011,82 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>22,35%</t>
+          <t>21,04%</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>28,85%</t>
+          <t>29,03%</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>20,94%</t>
+          <t>21,91%</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>26,04%</t>
+          <t>27,2%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>32,69%</t>
+          <t>25,38%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>27,07%</t>
+          <t>20,1%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>24,23%</t>
+          <t>28,0%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>30,7%</t>
+          <t>23,08%</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>24,02%</t>
+          <t>32,72%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>30,28%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>20,55%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>28,51%</t>
+        </is>
+      </c>
+      <c r="O32" s="2" t="inlineStr">
+        <is>
+          <t>22,51%</t>
+        </is>
+      </c>
+      <c r="P32" s="2" t="inlineStr">
+        <is>
+          <t>29,96%</t>
+        </is>
+      </c>
+      <c r="Q32" s="2" t="inlineStr">
+        <is>
+          <t>27,71%</t>
         </is>
       </c>
     </row>
@@ -2185,104 +3099,160 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>15,74; 29,29</t>
+          <t>16,09; 27,5</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>21,15; 36,43</t>
+          <t>22,08; 37,76</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>15,83; 27,44</t>
+          <t>17,26; 27,54</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>19,88; 32,81</t>
+          <t>19,35; 35,03</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>25,32; 40,35</t>
+          <t>17,58; 35,19</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>21,22; 33,51</t>
+          <t>15,23; 25,41</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>19,49; 29,22</t>
+          <t>22,56; 33,9</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>25,38; 35,97</t>
+          <t>18,64; 28,4</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>20,09; 28,65</t>
+          <t>26,57; 39,01</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>22,75; 40,22</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>16,95; 24,58</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>23,84; 33,93</t>
+        </is>
+      </c>
+      <c r="O33" s="2" t="inlineStr">
+        <is>
+          <t>19,29; 26,68</t>
+        </is>
+      </c>
+      <c r="P33" s="2" t="inlineStr">
+        <is>
+          <t>25,4; 35,7</t>
+        </is>
+      </c>
+      <c r="Q33" s="2" t="inlineStr">
+        <is>
+          <t>21,68; 34,44</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>34,26%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>21,83%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>27,83%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>27,5%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>29,79%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>21,53%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>30,56%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>26,31%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>24,38%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -2295,100 +3265,164 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>26,11; 49,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>13,64; 29,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>20,35; 35,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>19,78; 34,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>22,11; 39,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>15,74; 28,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>25,2; 37,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>20,6; 33,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>19,71; 29,45</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>37,27%</t>
+          <t>29,08%</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>41,46%</t>
+          <t>25,66%</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>39,8%</t>
+          <t>25,25%</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>46,74%</t>
+          <t>23,48%</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>40,86%</t>
+          <t>23,73%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>43,2%</t>
+          <t>31,72%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>42,45%</t>
+          <t>23,99%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>41,12%</t>
+          <t>28,31%</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>41,66%</t>
+          <t>27,98%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>28,26%</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>30,42%</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>24,85%</t>
+        </is>
+      </c>
+      <c r="O36" s="2" t="inlineStr">
+        <is>
+          <t>26,79%</t>
+        </is>
+      </c>
+      <c r="P36" s="2" t="inlineStr">
+        <is>
+          <t>25,72%</t>
+        </is>
+      </c>
+      <c r="Q36" s="2" t="inlineStr">
+        <is>
+          <t>26,07%</t>
         </is>
       </c>
     </row>
@@ -2401,47 +3435,77 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>25,89; 46,27</t>
+          <t>22,11; 36,96</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>29,59; 53,34</t>
+          <t>19,47; 36,33</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>31,16; 49,82</t>
+          <t>19,78; 31,11</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>38,64; 56,59</t>
+          <t>17,42; 31,85</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>33,12; 50,24</t>
+          <t>15,48; 33,96</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>34,87; 50,71</t>
+          <t>25,21; 39,07</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>35,76; 48,98</t>
+          <t>17,82; 31,09</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>34,03; 47,99</t>
+          <t>22,29; 35,42</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>35,89; 48,05</t>
+          <t>19,99; 37,18</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>20,55; 38,09</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>25,48; 35,59</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>20,35; 30,8</t>
+        </is>
+      </c>
+      <c r="O37" s="2" t="inlineStr">
+        <is>
+          <t>22,69; 31,29</t>
+        </is>
+      </c>
+      <c r="P37" s="2" t="inlineStr">
+        <is>
+          <t>20,93; 31,68</t>
+        </is>
+      </c>
+      <c r="Q37" s="2" t="inlineStr">
+        <is>
+          <t>20,37; 33,53</t>
         </is>
       </c>
     </row>
@@ -2449,52 +3513,82 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>28,47%</t>
+          <t>48,5%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>36,71%</t>
+          <t>45,86%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>32,37%</t>
+          <t>54,33%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>25,77%</t>
+          <t>49,0%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>29,35%</t>
+          <t>41,25%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>35,27%</t>
+          <t>43,24%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>26,99%</t>
+          <t>43,07%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>32,57%</t>
+          <t>44,17%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>33,96%</t>
+          <t>45,46%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>44,23%</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>45,83%</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>44,51%</t>
+        </is>
+      </c>
+      <c r="O38" s="2" t="inlineStr">
+        <is>
+          <t>49,22%</t>
+        </is>
+      </c>
+      <c r="P38" s="2" t="inlineStr">
+        <is>
+          <t>47,24%</t>
+        </is>
+      </c>
+      <c r="Q38" s="2" t="inlineStr">
+        <is>
+          <t>42,79%</t>
         </is>
       </c>
     </row>
@@ -2507,104 +3601,160 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>20,31; 38,72</t>
+          <t>41,08; 57,16</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>26,09; 55,84</t>
+          <t>36,92; 53,48</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>24,85; 42,51</t>
+          <t>48,0; 61,32</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>19,3; 34,07</t>
+          <t>39,38; 57,81</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>21,67; 37,14</t>
+          <t>30,74; 51,53</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>27,75; 43,77</t>
+          <t>35,79; 51,61</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>21,82; 33,41</t>
+          <t>34,99; 51,06</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>26,05; 42,42</t>
+          <t>37,09; 50,79</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>28,51; 40,1</t>
+          <t>36,14; 54,9</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>34,42; 54,16</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>40,6; 51,74</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>38,96; 50,08</t>
+        </is>
+      </c>
+      <c r="O39" s="2" t="inlineStr">
+        <is>
+          <t>44,86; 54,48</t>
+        </is>
+      </c>
+      <c r="P39" s="2" t="inlineStr">
+        <is>
+          <t>40,74; 54,31</t>
+        </is>
+      </c>
+      <c r="Q39" s="2" t="inlineStr">
+        <is>
+          <t>35,37; 50,12</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>32,53%</t>
+          <t>22,42%</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>24,73%</t>
+          <t>28,48%</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>26,45%</t>
+          <t>20,42%</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>29,77%</t>
+          <t>27,52%</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>24,17%</t>
+          <t>35,01%</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>27,61%</t>
+          <t>25,04%</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>31,13%</t>
+          <t>32,94%</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
         <is>
-          <t>24,45%</t>
+          <t>27,52%</t>
         </is>
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
+          <t>26,55%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>27,51%</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>23,75%</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>30,64%</t>
+        </is>
+      </c>
+      <c r="O40" s="2" t="inlineStr">
+        <is>
+          <t>23,99%</t>
+        </is>
+      </c>
+      <c r="P40" s="2" t="inlineStr">
+        <is>
           <t>27,04%</t>
+        </is>
+      </c>
+      <c r="Q40" s="2" t="inlineStr">
+        <is>
+          <t>31,15%</t>
         </is>
       </c>
     </row>
@@ -2617,47 +3767,77 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>29,23; 37,25</t>
+          <t>16,12; 29,86</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>21,58; 28,88</t>
+          <t>21,83; 35,77</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>23,35; 29,82</t>
+          <t>15,04; 25,87</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>27,1; 33,07</t>
+          <t>19,86; 37,5</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>21,32; 27,13</t>
+          <t>25,01; 45,6</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>25,2; 30,34</t>
+          <t>18,78; 31,75</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>28,74; 33,84</t>
+          <t>25,76; 41,09</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
         <is>
-          <t>22,2; 26,77</t>
+          <t>22,09; 33,81</t>
         </is>
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>24,95; 29,05</t>
+          <t>19,35; 34,94</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>19,96; 37,12</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>19,4; 28,57</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>25,74; 35,64</t>
+        </is>
+      </c>
+      <c r="O41" s="2" t="inlineStr">
+        <is>
+          <t>19,98; 27,87</t>
+        </is>
+      </c>
+      <c r="P41" s="2" t="inlineStr">
+        <is>
+          <t>21,58; 32,95</t>
+        </is>
+      </c>
+      <c r="Q41" s="2" t="inlineStr">
+        <is>
+          <t>24,65; 37,59</t>
         </is>
       </c>
     </row>
@@ -2665,52 +3845,82 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>44,38%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>45,57%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>49,08%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>47,13%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>44,49%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>47,56%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>45,78%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
         <is>
-          <t>45,02%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>48,31%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -2723,100 +3933,164 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>39,59; 47,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>41,27; 49,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>45,55; 52,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>43,86; 50,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>41,43; 47,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>44,72; 50,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>43,07; 48,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J43" s="2" t="inlineStr">
         <is>
-          <t>42,28; 47,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>45,76; 50,56</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>23,08%</t>
+          <t>36,51%</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>29,7%</t>
+          <t>23,16%</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>24,47%</t>
+          <t>28,44%</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>23,09%</t>
+          <t>32,22%</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>31,34%</t>
+          <t>24,96%</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>24,83%</t>
+          <t>29,96%</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>23,09%</t>
+          <t>30,96%</t>
         </is>
       </c>
       <c r="J44" s="2" t="inlineStr">
         <is>
-          <t>30,53%</t>
+          <t>20,86%</t>
         </is>
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>24,65%</t>
+          <t>25,71%</t>
+        </is>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
+        <is>
+          <t>16,19%</t>
+        </is>
+      </c>
+      <c r="M44" s="2" t="inlineStr">
+        <is>
+          <t>32,9%</t>
+        </is>
+      </c>
+      <c r="N44" s="2" t="inlineStr">
+        <is>
+          <t>27,57%</t>
+        </is>
+      </c>
+      <c r="O44" s="2" t="inlineStr">
+        <is>
+          <t>24,25%</t>
+        </is>
+      </c>
+      <c r="P44" s="2" t="inlineStr">
+        <is>
+          <t>28,56%</t>
+        </is>
+      </c>
+      <c r="Q44" s="2" t="inlineStr">
+        <is>
+          <t>19,91%</t>
         </is>
       </c>
     </row>
@@ -2829,63 +4103,1266 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>19,8; 26,94</t>
+          <t>28,03; 49,54</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>26,02; 34,64</t>
+          <t>15,6; 31,46</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>21,37; 28,27</t>
+          <t>21,33; 36,91</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>20,23; 25,82</t>
+          <t>21,38; 45,38</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>28,37; 34,58</t>
+          <t>16,21; 37,64</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>22,39; 27,62</t>
+          <t>23,28; 38,72</t>
         </is>
       </c>
       <c r="I45" s="2" t="inlineStr">
         <is>
-          <t>21,13; 25,64</t>
+          <t>23,74; 40,83</t>
         </is>
       </c>
       <c r="J45" s="2" t="inlineStr">
         <is>
-          <t>28,18; 33,16</t>
+          <t>15,37; 27,69</t>
         </is>
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
-          <t>22,79; 27,2</t>
+          <t>17,08; 36,02</t>
+        </is>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
+        <is>
+          <t>9,11; 26,67</t>
+        </is>
+      </c>
+      <c r="M45" s="2" t="inlineStr">
+        <is>
+          <t>27,46; 39,64</t>
+        </is>
+      </c>
+      <c r="N45" s="2" t="inlineStr">
+        <is>
+          <t>21,81; 34,11</t>
+        </is>
+      </c>
+      <c r="O45" s="2" t="inlineStr">
+        <is>
+          <t>20,01; 29,88</t>
+        </is>
+      </c>
+      <c r="P45" s="2" t="inlineStr">
+        <is>
+          <t>21,61; 36,79</t>
+        </is>
+      </c>
+      <c r="Q45" s="2" t="inlineStr">
+        <is>
+          <t>13,88; 28,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>34,7%</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>42,39%</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>39,16%</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>45,17%</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>41,41%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>43,36%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>40,77%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>43,97%</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="inlineStr">
+        <is>
+          <t>41,11%</t>
+        </is>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t>44,81%</t>
+        </is>
+      </c>
+      <c r="M46" s="2" t="inlineStr">
+        <is>
+          <t>39,46%</t>
+        </is>
+      </c>
+      <c r="N46" s="2" t="inlineStr">
+        <is>
+          <t>41,47%</t>
+        </is>
+      </c>
+      <c r="O46" s="2" t="inlineStr">
+        <is>
+          <t>41,82%</t>
+        </is>
+      </c>
+      <c r="P46" s="2" t="inlineStr">
+        <is>
+          <t>42,89%</t>
+        </is>
+      </c>
+      <c r="Q46" s="2" t="inlineStr">
+        <is>
+          <t>43,36%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>24,97; 42,85</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>31,42; 52,82</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>30,68; 49,19</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>33,44; 56,69</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>30,35; 54,95</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>35,12; 51,38</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>32,19; 49,19</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>36,42; 51,82</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="inlineStr">
+        <is>
+          <t>31,21; 50,89</t>
+        </is>
+      </c>
+      <c r="L47" s="2" t="inlineStr">
+        <is>
+          <t>31,33; 57,7</t>
+        </is>
+      </c>
+      <c r="M47" s="2" t="inlineStr">
+        <is>
+          <t>33,43; 45,59</t>
+        </is>
+      </c>
+      <c r="N47" s="2" t="inlineStr">
+        <is>
+          <t>34,9; 48,86</t>
+        </is>
+      </c>
+      <c r="O47" s="2" t="inlineStr">
+        <is>
+          <t>35,57; 47,53</t>
+        </is>
+      </c>
+      <c r="P47" s="2" t="inlineStr">
+        <is>
+          <t>34,71; 50,8</t>
+        </is>
+      </c>
+      <c r="Q47" s="2" t="inlineStr">
+        <is>
+          <t>34,13; 52,46</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>28,79%</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>34,45%</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>32,4%</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>22,61%</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>33,64%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>26,69%</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>28,28%</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>35,18%</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="inlineStr">
+        <is>
+          <t>33,18%</t>
+        </is>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
+        <is>
+          <t>39,0%</t>
+        </is>
+      </c>
+      <c r="M48" s="2" t="inlineStr">
+        <is>
+          <t>27,63%</t>
+        </is>
+      </c>
+      <c r="N48" s="2" t="inlineStr">
+        <is>
+          <t>30,96%</t>
+        </is>
+      </c>
+      <c r="O48" s="2" t="inlineStr">
+        <is>
+          <t>33,93%</t>
+        </is>
+      </c>
+      <c r="P48" s="2" t="inlineStr">
+        <is>
+          <t>28,54%</t>
+        </is>
+      </c>
+      <c r="Q48" s="2" t="inlineStr">
+        <is>
+          <t>36,72%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>20,45; 36,52</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>25,12; 49,33</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>25,06; 41,06</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>14,02; 33,44</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>22,17; 47,64</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>19,81; 33,6</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>21,0; 36,74</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>27,97; 42,69</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="inlineStr">
+        <is>
+          <t>23,59; 44,91</t>
+        </is>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
+        <is>
+          <t>26,46; 54,46</t>
+        </is>
+      </c>
+      <c r="M49" s="2" t="inlineStr">
+        <is>
+          <t>22,16; 33,21</t>
+        </is>
+      </c>
+      <c r="N49" s="2" t="inlineStr">
+        <is>
+          <t>25,26; 38,0</t>
+        </is>
+      </c>
+      <c r="O49" s="2" t="inlineStr">
+        <is>
+          <t>28,56; 39,57</t>
+        </is>
+      </c>
+      <c r="P49" s="2" t="inlineStr">
+        <is>
+          <t>22,03; 36,76</t>
+        </is>
+      </c>
+      <c r="Q49" s="2" t="inlineStr">
+        <is>
+          <t>27,97; 46,71</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>32,21%</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>24,89%</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>26,47%</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>31,28%</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>26,77%</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>30,37%</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>24,38%</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>27,55%</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="inlineStr">
+        <is>
+          <t>25,1%</t>
+        </is>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
+        <is>
+          <t>25,86%</t>
+        </is>
+      </c>
+      <c r="M52" s="2" t="inlineStr">
+        <is>
+          <t>31,27%</t>
+        </is>
+      </c>
+      <c r="N52" s="2" t="inlineStr">
+        <is>
+          <t>24,63%</t>
+        </is>
+      </c>
+      <c r="O52" s="2" t="inlineStr">
+        <is>
+          <t>27,02%</t>
+        </is>
+      </c>
+      <c r="P52" s="2" t="inlineStr">
+        <is>
+          <t>28,13%</t>
+        </is>
+      </c>
+      <c r="Q52" s="2" t="inlineStr">
+        <is>
+          <t>26,31%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>29,01; 36,49</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>21,58; 29,31</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>23,61; 29,69</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>26,58; 38,19</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>22,2; 31,7</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>27,54; 33,24</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>21,57; 27,39</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>25,11; 30,07</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="inlineStr">
+        <is>
+          <t>22,14; 28,56</t>
+        </is>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
+        <is>
+          <t>22,29; 30,12</t>
+        </is>
+      </c>
+      <c r="M53" s="2" t="inlineStr">
+        <is>
+          <t>29,09; 33,63</t>
+        </is>
+      </c>
+      <c r="N53" s="2" t="inlineStr">
+        <is>
+          <t>22,14; 27,04</t>
+        </is>
+      </c>
+      <c r="O53" s="2" t="inlineStr">
+        <is>
+          <t>24,99; 29,21</t>
+        </is>
+      </c>
+      <c r="P53" s="2" t="inlineStr">
+        <is>
+          <t>25,67; 32,32</t>
+        </is>
+      </c>
+      <c r="Q53" s="2" t="inlineStr">
+        <is>
+          <t>23,28; 29,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>44,78%</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>45,69%</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>48,98%</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>40,76%</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>38,47%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>46,68%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>44,38%</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>47,61%</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="inlineStr">
+        <is>
+          <t>42,22%</t>
+        </is>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
+        <is>
+          <t>42,57%</t>
+        </is>
+      </c>
+      <c r="M54" s="2" t="inlineStr">
+        <is>
+          <t>45,75%</t>
+        </is>
+      </c>
+      <c r="N54" s="2" t="inlineStr">
+        <is>
+          <t>45,03%</t>
+        </is>
+      </c>
+      <c r="O54" s="2" t="inlineStr">
+        <is>
+          <t>48,28%</t>
+        </is>
+      </c>
+      <c r="P54" s="2" t="inlineStr">
+        <is>
+          <t>41,5%</t>
+        </is>
+      </c>
+      <c r="Q54" s="2" t="inlineStr">
+        <is>
+          <t>40,53%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>40,48; 48,03</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>41,53; 50,07</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>45,02; 52,52</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>35,61; 45,31</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>32,95; 43,78</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>43,77; 49,92</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>41,34; 47,63</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>44,75; 50,48</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="inlineStr">
+        <is>
+          <t>38,63; 45,88</t>
+        </is>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
+        <is>
+          <t>38,12; 47,38</t>
+        </is>
+      </c>
+      <c r="M55" s="2" t="inlineStr">
+        <is>
+          <t>43,03; 47,95</t>
+        </is>
+      </c>
+      <c r="N55" s="2" t="inlineStr">
+        <is>
+          <t>42,53; 47,85</t>
+        </is>
+      </c>
+      <c r="O55" s="2" t="inlineStr">
+        <is>
+          <t>46,02; 50,69</t>
+        </is>
+      </c>
+      <c r="P55" s="2" t="inlineStr">
+        <is>
+          <t>38,35; 43,92</t>
+        </is>
+      </c>
+      <c r="Q55" s="2" t="inlineStr">
+        <is>
+          <t>37,18; 43,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>23,0%</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>29,41%</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>24,56%</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>27,96%</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>34,76%</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>22,96%</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>31,24%</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>24,84%</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="inlineStr">
+        <is>
+          <t>32,68%</t>
+        </is>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
+        <is>
+          <t>31,57%</t>
+        </is>
+      </c>
+      <c r="M56" s="2" t="inlineStr">
+        <is>
+          <t>22,98%</t>
+        </is>
+      </c>
+      <c r="N56" s="2" t="inlineStr">
+        <is>
+          <t>30,34%</t>
+        </is>
+      </c>
+      <c r="O56" s="2" t="inlineStr">
+        <is>
+          <t>24,7%</t>
+        </is>
+      </c>
+      <c r="P56" s="2" t="inlineStr">
+        <is>
+          <t>30,36%</t>
+        </is>
+      </c>
+      <c r="Q56" s="2" t="inlineStr">
+        <is>
+          <t>33,16%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>19,85; 26,79</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>25,89; 33,65</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>21,51; 28,55</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>24,1; 32,0</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>29,65; 41,14</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>20,44; 25,88</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>28,26; 34,3</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>22,43; 27,58</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="inlineStr">
+        <is>
+          <t>29,16; 35,79</t>
+        </is>
+      </c>
+      <c r="L57" s="2" t="inlineStr">
+        <is>
+          <t>27,37; 36,0</t>
+        </is>
+      </c>
+      <c r="M57" s="2" t="inlineStr">
+        <is>
+          <t>20,93; 25,22</t>
+        </is>
+      </c>
+      <c r="N57" s="2" t="inlineStr">
+        <is>
+          <t>28,0; 33,03</t>
+        </is>
+      </c>
+      <c r="O57" s="2" t="inlineStr">
+        <is>
+          <t>22,74; 27,02</t>
+        </is>
+      </c>
+      <c r="P57" s="2" t="inlineStr">
+        <is>
+          <t>27,62; 32,97</t>
+        </is>
+      </c>
+      <c r="Q57" s="2" t="inlineStr">
+        <is>
+          <t>29,7; 37,07</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_dif/P50-Edad-long_dif.xlsx
+++ b/data/long_dif/P50-Edad-long_dif.xlsx
@@ -680,7 +680,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -839,7 +839,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -998,7 +998,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1320,7 +1320,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1479,7 +1479,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1801,7 +1801,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1960,7 +1960,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -2282,7 +2282,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -2441,7 +2441,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
@@ -2604,7 +2604,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C40" s="5" t="n">
@@ -2763,7 +2763,7 @@
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C43" s="5" t="n">
@@ -2922,7 +2922,7 @@
       <c r="A46" s="1" t="n"/>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C46" s="5" t="n">
@@ -3085,7 +3085,7 @@
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C49" s="5" t="n">
@@ -3244,7 +3244,7 @@
       <c r="A52" s="1" t="n"/>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C52" s="5" t="n">
@@ -3403,7 +3403,7 @@
       <c r="A55" s="1" t="n"/>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C55" s="5" t="n">
@@ -3566,7 +3566,7 @@
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C58" s="5" t="n">
@@ -3725,7 +3725,7 @@
       <c r="A61" s="1" t="n"/>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C61" s="5" t="n">
@@ -3884,7 +3884,7 @@
       <c r="A64" s="1" t="n"/>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C64" s="5" t="n">
